--- a/data_excel/581.xlsx
+++ b/data_excel/581.xlsx
@@ -84,9 +84,6 @@
     <t>放進</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -124,7 +121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pv</t>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -216,21 +217,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -240,7 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -546,7 +532,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,35 +667,35 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -725,13 +711,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,10 +752,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -777,13 +763,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
